--- a/src/main/java/com/pengxiaoming/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/com/pengxiaoming/data/关键字驱动测试用例.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\KeyWordsFrameWork\src\main\java\com\pengxiaoming\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9EA4C-AEE9-40AE-9283-513A663A2A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D41A8A8-F918-48D5-AA53-F969D2D13450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="915" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例集合" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -44,178 +45,281 @@
     <t>发送一封邮件</t>
   </si>
   <si>
+    <t>visit126MailHomePage01</t>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到密码登录</t>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言XX是否在页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mail.126.com/</t>
+  </si>
+  <si>
+    <t>手机扫码 安全登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepId_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepId_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepId_03</t>
+  </si>
+  <si>
+    <t>stepId_04</t>
+  </si>
+  <si>
+    <t>stepId_05</t>
+  </si>
+  <si>
+    <t>stepId_06</t>
+  </si>
+  <si>
+    <t>stepId_07</t>
+  </si>
+  <si>
+    <t>stepId_08</t>
+  </si>
+  <si>
+    <t>stepHomeId-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepHomeId-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepHomeId-03</t>
+  </si>
+  <si>
+    <t>stepHomeId-04</t>
+  </si>
+  <si>
+    <t>http://admin.test1.i-fun.tech/#/user/login</t>
+  </si>
+  <si>
+    <t>pengxm@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pengxm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepId_09</t>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaoJi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnQuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pms.admin.uat.i-fun.tech/page/order-manage/sign-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pengxm1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartmentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到pengxm1003公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepId_10</t>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepId_11</t>
+  </si>
+  <si>
+    <t>orderManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage01</t>
+  </si>
+  <si>
+    <t>HomePage01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-  </si>
-  <si>
-    <t>访问126邮箱首页</t>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navigate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>close_browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换到密码登录</t>
-  </si>
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言XX是否在页面显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mail.126.com/</t>
-  </si>
-  <si>
-    <t>p18601632189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pxm2798415123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机扫码 安全登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepId_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepId_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepId_03</t>
-  </si>
-  <si>
-    <t>stepId_04</t>
-  </si>
-  <si>
-    <t>stepId_05</t>
-  </si>
-  <si>
-    <t>stepId_06</t>
-  </si>
-  <si>
-    <t>stepId_07</t>
-  </si>
-  <si>
-    <t>stepId_08</t>
-  </si>
-  <si>
-    <t>stepHomeId-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepHomeId-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepHomeId-03</t>
-  </si>
-  <si>
-    <t>stepHomeId-04</t>
+  </si>
+  <si>
+    <t>手机扫码 安全登录1111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +351,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,10 +388,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,7 +680,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,24 +703,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -609,36 +732,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09BDD5-B531-4D52-B967-3EE12EBE8D88}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,16 +769,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,16 +786,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,16 +803,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,16 +820,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,16 +837,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -731,16 +854,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,16 +871,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,34 +888,155 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{AAAB8956-F931-4BCC-997A-BB89E022444D}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{2F5B1C66-13DC-4C58-8DB5-10230868AFE3}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{139B4F60-E95B-4EFA-ADB5-B3FDEB1CA618}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{1C09CAB7-FB6C-4BAD-BEC7-78CC51224130}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E44085C-9E93-44DF-9DB1-3E7786DA7D8A}">
-  <dimension ref="A4:E7"/>
+  <dimension ref="A4:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B18" sqref="B18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,76 +1050,428 @@
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{C9CA52CF-E7B5-4774-A027-CFBB4FE929A7}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{4C61B8EC-37C2-4DBD-AB0A-A98A7ABB60F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A307040-5254-4520-BBCF-EC209B3D2444}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{A620E2ED-E21F-4998-8148-74819D0D8447}"/>
+    <hyperlink ref="E3" r:id="rId2" location="/user/login" display="http://admin.test1.i-fun.tech/ - /user/login" xr:uid="{3C54C5A2-F8F2-4D6E-8954-A466C94A9878}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{0340F2E5-5EC0-4623-9AB9-5823AB009E6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/pengxiaoming/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/com/pengxiaoming/data/关键字驱动测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\KeyWordsFrameWork\src\main\java\com\pengxiaoming\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D41A8A8-F918-48D5-AA53-F969D2D13450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB68DF6-3211-4234-9EDA-5DEC1C6AE713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="915" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23340" yWindow="2724" windowWidth="21600" windowHeight="11832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例集合" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -259,32 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租约列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepId_10</t>
-  </si>
-  <si>
-    <t>订单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepId_11</t>
-  </si>
-  <si>
-    <t>orderManage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HomePage01</t>
   </si>
   <si>
@@ -292,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,7 +281,7 @@
     <t>close_browser</t>
   </si>
   <si>
-    <t>手机扫码 安全登录1111111</t>
+    <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +660,7 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,8 +670,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -709,18 +682,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -732,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09BDD5-B531-4D52-B967-3EE12EBE8D88}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,12 +720,12 @@
     <col min="5" max="5" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -763,8 +736,11 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -781,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -798,7 +774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -815,7 +791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -832,7 +808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -849,7 +825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -857,16 +833,16 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -874,16 +850,16 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -891,16 +867,16 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -908,115 +884,81 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +966,7 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{2F5B1C66-13DC-4C58-8DB5-10230868AFE3}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{139B4F60-E95B-4EFA-ADB5-B3FDEB1CA618}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{1C09CAB7-FB6C-4BAD-BEC7-78CC51224130}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{1C09CAB7-FB6C-4BAD-BEC7-78CC51224130}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
